--- a/Farwater_ZRS/R_calc_for_Farwater/Data/Средние показатели обилия на сублиторальных илах.xlsx
+++ b/Farwater_ZRS/R_calc_for_Farwater/Data/Средние показатели обилия на сублиторальных илах.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Илистая губа" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Средние ЗРС по ЗИН отчетам" sheetId="3" r:id="rId3"/>
+    <sheet name="Portlsndia илиы по ЗИН" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="133">
   <si>
     <t>Виды</t>
   </si>
@@ -295,6 +297,138 @@
   </si>
   <si>
     <t>323.1 ± 225.0</t>
+  </si>
+  <si>
+    <t>valid_name</t>
+  </si>
+  <si>
+    <t>Mean_N</t>
+  </si>
+  <si>
+    <t>SE_N</t>
+  </si>
+  <si>
+    <t>Mean_B</t>
+  </si>
+  <si>
+    <t>SE_B</t>
+  </si>
+  <si>
+    <t>Chaetozone setosa</t>
+  </si>
+  <si>
+    <t>Galathowenia oculata</t>
+  </si>
+  <si>
+    <t>Scoletoma fragilis</t>
+  </si>
+  <si>
+    <t>Laphania boecki</t>
+  </si>
+  <si>
+    <t>Eteone longa</t>
+  </si>
+  <si>
+    <t>Aphelochaeta marioni</t>
+  </si>
+  <si>
+    <t>Thyasira gouldii</t>
+  </si>
+  <si>
+    <t>Spio limicola</t>
+  </si>
+  <si>
+    <t>Crenella decussata</t>
+  </si>
+  <si>
+    <t>Cossura longocirrata</t>
+  </si>
+  <si>
+    <t>Polycirrus medusa</t>
+  </si>
+  <si>
+    <t>Oligochaeta</t>
+  </si>
+  <si>
+    <t>Stegophiura nodosa</t>
+  </si>
+  <si>
+    <t>Rhodine gracilior</t>
+  </si>
+  <si>
+    <t>Praxillella praetermissa</t>
+  </si>
+  <si>
+    <t>Verruca stroemia</t>
+  </si>
+  <si>
+    <t>Ampharete finmarchica</t>
+  </si>
+  <si>
+    <t>Nicomache lumbricalis</t>
+  </si>
+  <si>
+    <t>Nephtys ciliata</t>
+  </si>
+  <si>
+    <t>Hemithiris psittacea</t>
+  </si>
+  <si>
+    <t>Mya truncata</t>
+  </si>
+  <si>
+    <t>Cryptonatica affinis</t>
+  </si>
+  <si>
+    <t>Chiridota laevis</t>
+  </si>
+  <si>
+    <t>Tonicella marmorea</t>
+  </si>
+  <si>
+    <t>Dictyosiphon foeniculaceus</t>
+  </si>
+  <si>
+    <t>Membranoptera fabriciana</t>
+  </si>
+  <si>
+    <t>Portlandia arctica</t>
+  </si>
+  <si>
+    <t>Golfingia (Golfingia) margaritacea</t>
+  </si>
+  <si>
+    <t>Prionospio cirrifera</t>
+  </si>
+  <si>
+    <t>Nephtys</t>
+  </si>
+  <si>
+    <t>Dipolydora quadrilobata</t>
+  </si>
+  <si>
+    <t>Ennucula tenuis</t>
+  </si>
+  <si>
+    <t>Maldane sarsi</t>
+  </si>
+  <si>
+    <t>Cistenides hyperborea</t>
+  </si>
+  <si>
+    <t>Euchone analis</t>
+  </si>
+  <si>
+    <t>Nemertea</t>
+  </si>
+  <si>
+    <t>Admete viridula</t>
+  </si>
+  <si>
+    <t>Ariadnaria borealis</t>
+  </si>
+  <si>
+    <t>Anonyx nugax</t>
   </si>
 </sst>
 </file>
@@ -306,18 +440,24 @@
     <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
-    <numFmt numFmtId="181" formatCode="0.0_ "/>
-    <numFmt numFmtId="182" formatCode="0.00_ "/>
-    <numFmt numFmtId="183" formatCode="0.000_ "/>
+    <numFmt numFmtId="180" formatCode="0.0_ "/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="182" formatCode="0.000_ "/>
+    <numFmt numFmtId="183" formatCode="0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -803,168 +943,174 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1532,22 +1678,22 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="11">
         <v>1565.02443128982</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
         <v>9.16547467348742</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="4">
         <v>278.586250869296</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="10">
+      <c r="F2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6">
         <v>1.81424691681219</v>
       </c>
     </row>
@@ -1555,22 +1701,22 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="11">
         <v>63.3189353384454</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="C3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
         <v>0.311380735267198</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="4">
         <v>223.735965805168</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="F3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6">
         <v>1.10971128112378</v>
       </c>
     </row>
@@ -1578,22 +1724,22 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="11">
         <v>1082.15315740971</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
         <v>6.58901374854628</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="4">
         <v>72.6981163607443</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="F4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6">
         <v>0.310149225086402</v>
       </c>
     </row>
@@ -1601,22 +1747,22 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="11">
         <v>20.9713380098971</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="C5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.304226047943986</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="4">
         <v>32.9362635652174</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="F5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6">
         <v>0.697034373458495</v>
       </c>
     </row>
@@ -1624,22 +1770,22 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="11">
         <v>15.9375</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="C6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
         <v>0.192313281526493</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="4">
         <v>28.5853125</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="F6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6">
         <v>0.689386152174423</v>
       </c>
     </row>
@@ -1647,22 +1793,22 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="11">
         <v>10</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="C7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="4">
         <v>27.175</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="F7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6">
         <v>3.01574859418575</v>
       </c>
     </row>
@@ -1670,22 +1816,22 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="11">
         <v>35.8148148148148</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
         <v>1.54623571667801</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="4">
         <v>22.0781481481481</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="F8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="6">
         <v>3.67293896316988</v>
       </c>
     </row>
@@ -1693,22 +1839,22 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="11">
         <v>11.55</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="C9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
         <v>0.254679881626451</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="4">
         <v>15.8815</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="F9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="6">
         <v>1.10802403872603</v>
       </c>
     </row>
@@ -1716,22 +1862,22 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="11">
         <v>169.559392659796</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="C10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
         <v>0.862133495306141</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="4">
         <v>12.2604390837517</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="10">
+      <c r="F10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="6">
         <v>0.0749045019008027</v>
       </c>
     </row>
@@ -1739,22 +1885,22 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="11">
         <v>10</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="C11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="4">
         <v>11.6542307692308</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="F11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="6">
         <v>0.462307835313902</v>
       </c>
     </row>
@@ -1762,22 +1908,22 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="11">
         <v>405.405445364338</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="C12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
         <v>0.917289129860935</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="4">
         <v>11.1684455332442</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="10">
+      <c r="F12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="6">
         <v>0.0266453973242139</v>
       </c>
     </row>
@@ -1785,22 +1931,22 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="11">
         <v>3518.48354066997</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="C13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
         <v>29.6990210094908</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="4">
         <v>10.6227808380342</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="10">
+      <c r="F13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="6">
         <v>0.0894682248811553</v>
       </c>
     </row>
@@ -1808,22 +1954,22 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="11">
         <v>249.133893176818</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="C14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
         <v>0.894498786339995</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="4">
         <v>3.48930984659596</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="10">
+      <c r="F14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="6">
         <v>0.0147058545797098</v>
       </c>
     </row>
@@ -1831,22 +1977,22 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="11">
         <v>188.965254123273</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="C15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
         <v>1.61995627803613</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="4">
         <v>3.00239546931295</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="10">
+      <c r="F15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="6">
         <v>0.0329062377734612</v>
       </c>
     </row>
@@ -1854,22 +2000,22 @@
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="11">
         <v>722.529272060333</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="C16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
         <v>5.55308802456765</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="4">
         <v>2.78570581252</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="10">
+      <c r="F16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="6">
         <v>0.0172617138718025</v>
       </c>
     </row>
@@ -1877,22 +2023,22 @@
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="11">
         <v>162.655779791445</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="C17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2">
         <v>1.09291973433791</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="4">
         <v>2.07725631073384</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="10">
+      <c r="F17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="6">
         <v>0.0125061351372451</v>
       </c>
     </row>
@@ -1900,22 +2046,22 @@
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="11">
         <v>1108.52698760668</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="C18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2">
         <v>3.721101664497</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="4">
         <v>2.06431251424697</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="10">
+      <c r="F18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="6">
         <v>0.00902124408849594</v>
       </c>
     </row>
@@ -1923,22 +2069,22 @@
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="11">
         <v>466.220883070923</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="C19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2">
         <v>1.13739822743811</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="4">
         <v>1.92865360352895</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="10">
+      <c r="F19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="6">
         <v>0.00555902711830506</v>
       </c>
     </row>
@@ -1946,22 +2092,22 @@
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="11">
         <v>490.113816738824</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="C20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
         <v>3.82568713818142</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="4">
         <v>1.18725256743922</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="10">
+      <c r="F20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="6">
         <v>0.00836730947348445</v>
       </c>
     </row>
@@ -1969,22 +2115,22 @@
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="11">
         <v>671.354875623368</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="C21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
         <v>14.1978751305507</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="4">
         <v>1.16895209668421</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="10">
+      <c r="F21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="6">
         <v>0.0398821224301673</v>
       </c>
     </row>
@@ -1992,22 +2138,22 @@
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="11">
         <v>651.973276020685</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="8">
+      <c r="C22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
         <v>1.94492891579978</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="4">
         <v>1.09957985391233</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="10">
+      <c r="F22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="6">
         <v>0.00332112549249559</v>
       </c>
     </row>
@@ -2015,60 +2161,60 @@
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="11">
         <v>334.971417735885</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="C23" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2">
         <v>3.99580029960514</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="4">
         <v>0.865646629791667</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="10">
+      <c r="F23" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="6">
         <v>0.0147138270691749</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
     </row>
   </sheetData>
   <sortState ref="A2:G29">
@@ -2084,277 +2230,1971 @@
   <sheetPr/>
   <dimension ref="A2:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="38.5555555555556" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7777777777778" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.8888888888889" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1111111111111" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="38.5555555555556" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.7777777777778" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.8888888888889" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.1111111111111" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.88888888888889" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="C3" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="25.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="2.77777777777778" customWidth="1"/>
+    <col min="4" max="4" width="11.7777777777778"/>
+    <col min="5" max="5" width="12.8888888888889"/>
+    <col min="6" max="6" width="2.77777777777778" customWidth="1"/>
+    <col min="7" max="7" width="12.8888888888889"/>
+    <col min="10" max="10" width="20.7777777777778" customWidth="1"/>
+    <col min="12" max="12" width="2.77777777777778" customWidth="1"/>
+    <col min="13" max="13" width="11.7777777777778"/>
+    <col min="14" max="14" width="12.8888888888889"/>
+    <col min="15" max="15" width="2.77777777777778" customWidth="1"/>
+    <col min="16" max="16" width="12.8888888888889"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2">
+        <v>327.111</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4">
+        <v>151.56949083323</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.687333333333333</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.322934003118858</v>
+      </c>
+      <c r="J2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2">
+        <v>296.666666666667</v>
+      </c>
       <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>114.477233706257</v>
+      </c>
+      <c r="E3" s="4">
+        <v>7.157</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1.77200849634281</v>
+      </c>
+      <c r="J3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="2">
+        <v>327.111</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="4">
+        <v>151.56949083323</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.687333333333333</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0.322934003118858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <v>127.777666666667</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>40.6103849558122</v>
+      </c>
+      <c r="E4" s="4">
+        <v>59.9616666666667</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6">
+        <v>17.3822856965658</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2">
+        <v>296.666666666667</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="4">
+        <v>114.477233706257</v>
+      </c>
+      <c r="N4" s="4">
+        <v>7.157</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1.77200849634281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="2">
+        <v>103.555666666667</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>46.3424023454562</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.249</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.122159731499377</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="2">
+        <v>127.777666666667</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="4">
+        <v>40.6103849558122</v>
+      </c>
+      <c r="N5" s="4">
+        <v>59.9616666666667</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="6">
+        <v>17.3822856965658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="2">
+        <v>60</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>11.3920049937567</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.61333333333333</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.533200539023372</v>
+      </c>
+      <c r="J6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="2">
+        <v>103.555666666667</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="4">
+        <v>46.3424023454562</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.249</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0.122159731499377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="2">
+        <v>59.5556666666667</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4">
+        <v>7.62490288705614</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.398333333333333</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.069992327621861</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" s="2">
+        <v>60</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="4">
+        <v>11.3920049937567</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2.61333333333333</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0.533200539023372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="2">
+        <v>57.5556666666667</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
+        <v>15.8951785014385</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.152</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.0304922576694114</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="2">
+        <v>59.5556666666667</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="4">
+        <v>7.62490288705614</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.398333333333333</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0.069992327621861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="2">
+        <v>47.5556666666667</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
+        <v>21.1114615956287</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.048</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.0231324687638633</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="2">
+        <v>57.5556666666667</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="4">
+        <v>15.8951785014385</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.152</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0.0304922576694114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44.2223333333333</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4">
+        <v>14.4535205105244</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.442666666666667</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.108093238216588</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="2">
+        <v>47.5556666666667</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="4">
+        <v>21.1114615956287</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.048</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0.0231324687638633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="2">
+        <v>42.6666666666667</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4">
+        <v>15.9071379272651</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.081</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.0323573793747269</v>
+      </c>
+      <c r="J11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="2">
+        <v>44.2223333333333</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="4">
+        <v>14.4535205105244</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0.442666666666667</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0.108093238216588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="2">
+        <v>32.4443333333333</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4">
+        <v>9.36860179496346</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.140666666666667</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.0472867532934651</v>
+      </c>
+      <c r="J12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" s="2">
+        <v>42.6666666666667</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="4">
+        <v>15.9071379272651</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.081</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0.0323573793747269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>32.2223333333333</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4">
+        <v>12.6380303332325</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.069</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.0217893959938723</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4">
+        <v>18.475208614068</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.0133333333333333</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.00769800358919501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="2">
+        <v>30.4443333333333</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4">
+        <v>8.10529522619033</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.0525737577123797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="2">
+        <v>29.3333333333333</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4">
+        <v>16.935607896229</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.016</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.00923760430703401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="2">
+        <v>28.6666666666667</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4">
+        <v>16.5507077167693</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.573333333333333</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.331014154335385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="2">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4">
+        <v>9.26162932629987</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.130333333333333</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.0455733027761422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="2">
+        <v>24.889</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4">
+        <v>10.1963989449435</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.642333333333333</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.140887793546391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="2">
+        <v>24.889</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="4">
+        <v>11.0874451670948</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.141333333333333</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.0650515465127748</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="2">
+        <v>24.6666666666667</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="4">
+        <v>11.9319055632523</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.031</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.0147309198626562</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="2">
+        <v>21.7776666666667</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5.80046259010945</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1.69633333333333</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.606887169939386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="2">
+        <v>18.2223333333333</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4">
+        <v>10.5206690552631</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2.72766666666667</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1.57481908425957</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="2">
+        <v>18</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4">
+        <v>8.19213715162967</v>
+      </c>
+      <c r="E24" s="4">
+        <v>6.10366666666667</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="6">
+        <v>2.44479493194404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="2">
+        <v>5.77766666666667</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="4">
+        <v>3.33573740528793</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1.544</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.891428815628782</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="2">
+        <v>5.33333333333333</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2.03670030886926</v>
+      </c>
+      <c r="E26" s="4">
+        <v>3.849</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1.5371287446983</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4.889</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2.10034290851121</v>
+      </c>
+      <c r="E27" s="4">
+        <v>9.98233333333333</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="6">
+        <v>4.46363748445061</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4.44433333333333</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2.19241866270852</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1.38833333333333</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.640148275647771</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3.77766666666667</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.780476801088307</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1.37366666666667</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.436542009348386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3.33333333333333</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1.38777733297742</v>
+      </c>
+      <c r="E30" s="4">
+        <v>6.184</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="6">
+        <v>2.67983017704066</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2.66666666666667</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1.539600717839</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1.09333333333333</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.631236294313991</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32"/>
+      <c r="E32" s="4">
+        <v>26.4</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="6">
+        <v>15.2420471066061</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33"/>
+      <c r="E33" s="4">
+        <v>3.61</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="6">
+        <v>2.04108631207339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34"/>
+      <c r="E34" s="4">
+        <v>1.85333333333333</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="6">
+        <v>1.07002249889811</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35"/>
+      <c r="E35" s="4">
+        <v>20.16</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="6">
+        <v>11.6393814268629</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
+      <c r="B36"/>
+      <c r="E36" s="4">
+        <v>68.16</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="6">
+        <v>39.3521943479649</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37"/>
+      <c r="E37" s="4">
+        <v>16.7333333333333</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="6">
+        <v>9.66099450443974</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:G31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="29.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="2.77777777777778" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.8888888888889"/>
+    <col min="6" max="6" width="2.77777777777778" customWidth="1"/>
+    <col min="7" max="7" width="7.77777777777778" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="2">
+        <v>189.455666666667</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>42.1000857696848</v>
+      </c>
+      <c r="E4" s="5">
+        <v>21.8176666666667</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6">
+        <v>4.85614863781913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="2">
+        <v>115.444333333333</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>65.1183787816324</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.0886666666666667</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.0497553272785196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>71.111</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2.45028259141222</v>
+      </c>
+      <c r="E6" s="5">
+        <v>23.0413333333333</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3.8362563107125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="2">
+        <v>55.5556666666667</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
+      </c>
+      <c r="D7" s="4">
+        <v>21.7806751663878</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.128</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.0612218189137754</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="2">
+        <v>38.7776666666667</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
+        <v>12.8141557849701</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.248666666666667</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.10403863242583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="2">
+        <v>32.5556666666667</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10.5176745229338</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3.39466666666667</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.980051151348367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="2">
+        <v>32.4443333333333</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>54</v>
+        <v>4</v>
+      </c>
+      <c r="D10" s="4">
+        <v>18.3482857096101</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.0216666666666667</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.0122217171612818</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="2">
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
-        <v>57</v>
+        <v>4</v>
+      </c>
+      <c r="D11" s="4">
+        <v>17.3333333333333</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.0246666666666667</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.0133846235714027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2">
+        <v>30.5556666666667</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>67</v>
+        <v>4</v>
+      </c>
+      <c r="D12" s="4">
+        <v>10.188508212324</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.052</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.0180277563773199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="2">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4">
+        <v>17.3205080756888</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3.73333333333333</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2.1554410049746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
+        <v>29.2223333333333</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4">
+        <v>16.1077596770878</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.0158989866902824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="2">
+        <v>25.9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4">
+        <v>11.9978238767611</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.0373333333333333</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.0201282922312885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="2">
+        <v>18.111</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4.89934193993892</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.296</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.121535088668984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="2">
+        <v>16.7776666666667</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4">
+        <v>5.03848848954319</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.137333333333333</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.065920266090797</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="2">
+        <v>15.6666666666667</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>73</v>
+        <v>4</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1.34715062810913</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1.74933333333333</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.219935933432477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="2">
+        <v>14.3333333333333</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4">
+        <v>8.27535385838464</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.007</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.00404145188432738</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="2">
+        <v>13.989</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="4">
+        <v>5.22952369830285</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.0316666666666667</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.0136680216130505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="2">
+        <v>13.3333333333333</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>80</v>
+        <v>4</v>
+      </c>
+      <c r="D21" s="4">
+        <v>7.69800358919501</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.0519615242270663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="2">
+        <v>11.7666666666667</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5.86669823223831</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.024</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.0103333333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="2">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2.96273147243853</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.395666666666667</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.12258164323935</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="2">
+        <v>6.23333333333333</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>84</v>
+        <v>4</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2.00453190250197</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.158333333333333</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.0458964212273842</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3.66666666666667</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1.17062819476142</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.0526666666666667</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.0230562918222465</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2.77766666666667</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>87</v>
+        <v>4</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1.23896445708742</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.178333333333333</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.0619716183545458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2.22233333333333</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.678912229095054</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.888</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.407936814279423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.877666666666667</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>88</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.253420233633415</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.413333333333333</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.129761462064193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.433333333333333</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.250185116648838</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.145666666666667</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.0841006892119555</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" s="3"/>
+      <c r="D30"/>
+      <c r="E30" s="1"/>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" s="3"/>
+      <c r="D31"/>
+      <c r="E31" s="1"/>
+      <c r="G31"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
